--- a/Config/Item.xlsx
+++ b/Config/Item.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24701"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10111"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\czlin\space\IW.AN\Config\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lin/space/IW.AN/Config/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{88DD8838-2353-4A37-9305-7507E9616CBA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D5B1835-E243-5A47-A5DA-ACC3A6E01F9E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="21800" windowHeight="12980" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="货币" sheetId="4" r:id="rId1"/>
@@ -298,7 +298,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -637,18 +637,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D19" sqref="D19"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <cols>
     <col min="2" max="2" width="11" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="26.73046875" customWidth="1"/>
-    <col min="4" max="4" width="12.3984375" customWidth="1"/>
+    <col min="3" max="3" width="26.6640625" customWidth="1"/>
+    <col min="4" max="4" width="12.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:4">
       <c r="A1" t="s">
         <v>8</v>
       </c>
@@ -662,7 +662,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:4">
       <c r="A2">
         <v>1</v>
       </c>
@@ -676,7 +676,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:4">
       <c r="A3">
         <v>2</v>
       </c>
@@ -690,7 +690,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:4">
       <c r="A4">
         <v>3</v>
       </c>
@@ -719,14 +719,14 @@
       <selection activeCell="D1" sqref="D1:D1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <cols>
-    <col min="4" max="4" width="10.796875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.796875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.86328125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.83203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.83203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:5">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -743,7 +743,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:5">
       <c r="A2">
         <v>100001</v>
       </c>
@@ -760,7 +760,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:5">
       <c r="A3">
         <v>100002</v>
       </c>
@@ -777,7 +777,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:5">
       <c r="A4">
         <v>100003</v>
       </c>
@@ -794,7 +794,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:5">
       <c r="A5">
         <v>100004</v>
       </c>
@@ -811,7 +811,7 @@
         <v>110001</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:5">
       <c r="A6">
         <v>100005</v>
       </c>
@@ -837,23 +837,23 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{02606477-AAB8-4F1E-B4BD-98A428FA858A}">
-  <dimension ref="A1:N6"/>
+  <dimension ref="A1:N3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:B3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E11" activeCellId="1" sqref="D4:D8 E11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <cols>
-    <col min="4" max="6" width="10.796875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.9296875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="8.796875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="13.9296875" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="8.796875" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="13.9296875" bestFit="1" customWidth="1"/>
+    <col min="4" max="6" width="10.83203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="8.83203125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="8.83203125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:14">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -897,7 +897,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:14">
       <c r="A2">
         <v>110001</v>
       </c>
@@ -908,7 +908,7 @@
         <v>13</v>
       </c>
       <c r="D2">
-        <v>-1</v>
+        <v>9999</v>
       </c>
       <c r="E2">
         <v>1</v>
@@ -923,7 +923,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:14">
       <c r="A3">
         <v>110002</v>
       </c>
@@ -934,7 +934,7 @@
         <v>14</v>
       </c>
       <c r="D3">
-        <v>-1</v>
+        <v>9999</v>
       </c>
       <c r="E3">
         <v>2</v>
@@ -965,21 +965,6 @@
       </c>
       <c r="N3">
         <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="D4">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="D5">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="D6">
-        <v>-1</v>
       </c>
     </row>
   </sheetData>
@@ -997,14 +982,14 @@
       <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <cols>
-    <col min="4" max="4" width="10.796875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.796875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.86328125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.83203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.83203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:5">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1021,7 +1006,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:5">
       <c r="A2">
         <v>130001</v>
       </c>
@@ -1038,7 +1023,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:5">
       <c r="A3">
         <v>130002</v>
       </c>
@@ -1055,7 +1040,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:5">
       <c r="A4">
         <v>130003</v>
       </c>
@@ -1072,7 +1057,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:5">
       <c r="A5">
         <v>130004</v>
       </c>
@@ -1089,7 +1074,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:5">
       <c r="A6">
         <v>130005</v>
       </c>
